--- a/clientes_10-06-2025.xlsx
+++ b/clientes_10-06-2025.xlsx
@@ -83,7 +83,7 @@
     <t>España</t>
   </si>
   <si>
-    <t>siyofueramuyrico@gmail.com</t>
+    <t>lolailo@gmail.com</t>
   </si>
   <si>
     <t>06-06-1980</t>
@@ -110,7 +110,7 @@
     <t>Madrid</t>
   </si>
   <si>
-    <t>siyofuerarico@msn.com</t>
+    <t>chorimullo@msn.com</t>
   </si>
   <si>
     <t>06-06-2024</t>
